--- a/Data/Topic_model_tfidf/tfdif_multiple_0.9.xlsx
+++ b/Data/Topic_model_tfidf/tfdif_multiple_0.9.xlsx
@@ -348,12 +348,12 @@
     <t>town</t>
   </si>
   <si>
+    <t>distribute</t>
+  </si>
+  <si>
     <t>outer</t>
   </si>
   <si>
-    <t>distribute</t>
-  </si>
-  <si>
     <t>exactly</t>
   </si>
   <si>
@@ -405,12 +405,12 @@
     <t>street</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>essentially</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>think</t>
   </si>
   <si>
@@ -567,6 +567,9 @@
     <t>douche</t>
   </si>
   <si>
+    <t>caveat</t>
+  </si>
+  <si>
     <t>invasion</t>
   </si>
   <si>
@@ -576,9 +579,6 @@
     <t>stroke</t>
   </si>
   <si>
-    <t>caveat</t>
-  </si>
-  <si>
     <t>slot</t>
   </si>
   <si>
@@ -588,15 +588,15 @@
     <t>throughput</t>
   </si>
   <si>
+    <t>dentist</t>
+  </si>
+  <si>
     <t>home</t>
   </si>
   <si>
     <t>walk</t>
   </si>
   <si>
-    <t>dentist</t>
-  </si>
-  <si>
     <t>assertion</t>
   </si>
   <si>
@@ -615,18 +615,18 @@
     <t>close</t>
   </si>
   <si>
+    <t>storefront</t>
+  </si>
+  <si>
+    <t>exacerbate</t>
+  </si>
+  <si>
     <t>ultra</t>
   </si>
   <si>
-    <t>storefront</t>
-  </si>
-  <si>
     <t>predominantly</t>
   </si>
   <si>
-    <t>exacerbate</t>
-  </si>
-  <si>
     <t>educational</t>
   </si>
   <si>
@@ -702,12 +702,12 @@
     <t>choke</t>
   </si>
   <si>
+    <t>contrast</t>
+  </si>
+  <si>
     <t>existent</t>
   </si>
   <si>
-    <t>contrast</t>
-  </si>
-  <si>
     <t>tackle</t>
   </si>
   <si>
@@ -753,12 +753,12 @@
     <t>dedicate</t>
   </si>
   <si>
+    <t>come</t>
+  </si>
+  <si>
     <t>equally</t>
   </si>
   <si>
-    <t>come</t>
-  </si>
-  <si>
     <t>divert</t>
   </si>
   <si>
@@ -768,42 +768,42 @@
     <t>proximity</t>
   </si>
   <si>
+    <t>fantastic</t>
+  </si>
+  <si>
     <t>pollution</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>realistic</t>
   </si>
   <si>
+    <t>circumstance</t>
+  </si>
+  <si>
     <t>amenity</t>
   </si>
   <si>
     <t>lifestyle</t>
   </si>
   <si>
-    <t>circumstance</t>
-  </si>
-  <si>
     <t>gridlock</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
+    <t>btw</t>
+  </si>
+  <si>
     <t>train</t>
   </si>
   <si>
-    <t>btw</t>
+    <t>retail</t>
   </si>
   <si>
     <t>numerous</t>
   </si>
   <si>
-    <t>retail</t>
-  </si>
-  <si>
     <t>relative</t>
   </si>
   <si>
@@ -852,24 +852,24 @@
     <t>system</t>
   </si>
   <si>
+    <t>feed</t>
+  </si>
+  <si>
     <t>giant</t>
   </si>
   <si>
-    <t>feed</t>
-  </si>
-  <si>
     <t>living</t>
   </si>
   <si>
     <t>length</t>
   </si>
   <si>
+    <t>advocate</t>
+  </si>
+  <si>
     <t>bus</t>
   </si>
   <si>
-    <t>advocate</t>
-  </si>
-  <si>
     <t>sprawl</t>
   </si>
   <si>
@@ -906,12 +906,12 @@
     <t>measure</t>
   </si>
   <si>
+    <t>elsewhere</t>
+  </si>
+  <si>
     <t>etobicoke</t>
   </si>
   <si>
-    <t>elsewhere</t>
-  </si>
-  <si>
     <t>pop</t>
   </si>
   <si>
@@ -936,12 +936,12 @@
     <t>overall</t>
   </si>
   <si>
+    <t>thousand</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>thousand</t>
-  </si>
-  <si>
     <t>driving</t>
   </si>
   <si>
@@ -981,28 +981,31 @@
     <t>view</t>
   </si>
   <si>
+    <t>apartment</t>
+  </si>
+  <si>
     <t>doubt</t>
   </si>
   <si>
-    <t>apartment</t>
+    <t>developer</t>
+  </si>
+  <si>
+    <t>standard</t>
   </si>
   <si>
     <t>shitty</t>
   </si>
   <si>
-    <t>developer</t>
-  </si>
-  <si>
     <t>minimum</t>
   </si>
   <si>
-    <t>standard</t>
+    <t>medium</t>
   </si>
   <si>
     <t>total</t>
   </si>
   <si>
-    <t>medium</t>
+    <t>alone</t>
   </si>
   <si>
     <t>decent</t>
@@ -1014,9 +1017,6 @@
     <t>certainly</t>
   </si>
   <si>
-    <t>alone</t>
-  </si>
-  <si>
     <t>personal</t>
   </si>
   <si>
@@ -1050,12 +1050,12 @@
     <t>mostly</t>
   </si>
   <si>
+    <t>step</t>
+  </si>
+  <si>
     <t>region</t>
   </si>
   <si>
-    <t>step</t>
-  </si>
-  <si>
     <t>non</t>
   </si>
   <si>
@@ -1080,12 +1080,12 @@
     <t>difference</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>easily</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>offer</t>
   </si>
   <si>
@@ -1116,12 +1116,12 @@
     <t>middle</t>
   </si>
   <si>
+    <t>actual</t>
+  </si>
+  <si>
     <t>past</t>
   </si>
   <si>
-    <t>actual</t>
-  </si>
-  <si>
     <t>fair</t>
   </si>
   <si>
@@ -1131,12 +1131,12 @@
     <t>south</t>
   </si>
   <si>
+    <t>miss</t>
+  </si>
+  <si>
     <t>lane</t>
   </si>
   <si>
-    <t>miss</t>
-  </si>
-  <si>
     <t>completely</t>
   </si>
   <si>
@@ -1185,18 +1185,18 @@
     <t>company</t>
   </si>
   <si>
+    <t>likely</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
     <t>design</t>
   </si>
   <si>
-    <t>likely</t>
-  </si>
-  <si>
     <t>go</t>
   </si>
   <si>
-    <t>base</t>
-  </si>
-  <si>
     <t>require</t>
   </si>
   <si>
@@ -1209,12 +1209,12 @@
     <t>provide</t>
   </si>
   <si>
+    <t>real</t>
+  </si>
+  <si>
     <t>major</t>
   </si>
   <si>
-    <t>real</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -1242,10 +1242,10 @@
     <t>open</t>
   </si>
   <si>
+    <t>different</t>
+  </si>
+  <si>
     <t>number</t>
-  </si>
-  <si>
-    <t>different</t>
   </si>
   <si>
     <t>fact</t>
@@ -2266,7 +2266,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.128</v>
+        <v>0.129</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -2321,7 +2321,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.112</v>
+        <v>0.113</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -2858,7 +2858,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.127</v>
+        <v>0.126</v>
       </c>
       <c r="C16" t="s">
         <v>61</v>
@@ -3012,7 +3012,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.094</v>
+        <v>0.095</v>
       </c>
       <c r="C30" t="s">
         <v>75</v>
@@ -3529,7 +3529,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.047</v>
+        <v>0.048</v>
       </c>
       <c r="C77" t="s">
         <v>119</v>
@@ -4236,7 +4236,7 @@
         <v>0.03</v>
       </c>
       <c r="C141" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4247,7 +4247,7 @@
         <v>0.03</v>
       </c>
       <c r="C142" t="s">
-        <v>182</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4398,7 +4398,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="C156" t="s">
         <v>196</v>
@@ -5245,7 +5245,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="C233" t="s">
         <v>272</v>
@@ -5817,7 +5817,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="C285" t="s">
         <v>324</v>
@@ -6312,7 +6312,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="C330" t="s">
         <v>368</v>
@@ -6697,7 +6697,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="C365" t="s">
         <v>401</v>
